--- a/input.xlsx
+++ b/input.xlsx
@@ -1,37 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szczesnk\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08C9875-CC52-4300-A02A-EC917DCE4124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17676" windowHeight="10572" tabRatio="678" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>rrr</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +64,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,317 +388,531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="L7:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="L7" sqref="L7:V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>AY</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="7" spans="12:22" x14ac:dyDescent="0.3">
+      <c r="L7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="N7" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="O7" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="P7" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="Q7" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="R7" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="S7" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="T7" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="U7" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="V7" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="8" spans="12:22" x14ac:dyDescent="0.3">
+      <c r="L8">
         <v>1981</v>
       </c>
-      <c r="B2" t="n">
+      <c r="M8">
         <v>5012</v>
       </c>
-      <c r="C2" t="n">
+      <c r="N8">
         <v>8269</v>
       </c>
-      <c r="D2" t="n">
+      <c r="O8">
         <v>10907</v>
       </c>
-      <c r="E2" t="n">
+      <c r="P8">
         <v>11805</v>
       </c>
-      <c r="F2" t="n">
+      <c r="Q8">
         <v>13539</v>
       </c>
-      <c r="G2" t="n">
+      <c r="R8">
         <v>16181</v>
       </c>
-      <c r="H2" t="n">
+      <c r="S8">
         <v>18009</v>
       </c>
-      <c r="I2" t="n">
+      <c r="T8">
         <v>18608</v>
       </c>
-      <c r="J2" t="n">
+      <c r="U8">
         <v>18662</v>
       </c>
-      <c r="K2" t="n">
+      <c r="V8">
         <v>18834</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="9" spans="12:22" x14ac:dyDescent="0.3">
+      <c r="L9">
         <v>1982</v>
       </c>
-      <c r="B3" t="n">
+      <c r="M9">
         <v>106</v>
       </c>
-      <c r="C3" t="n">
+      <c r="N9">
         <v>4285</v>
       </c>
-      <c r="D3" t="n">
+      <c r="O9">
         <v>5396</v>
       </c>
-      <c r="E3" t="n">
+      <c r="P9">
         <v>10666</v>
       </c>
-      <c r="F3" t="n">
+      <c r="Q9">
         <v>13782</v>
       </c>
-      <c r="G3" t="n">
+      <c r="R9">
         <v>15599</v>
       </c>
-      <c r="H3" t="n">
+      <c r="S9">
         <v>15496</v>
       </c>
-      <c r="I3" t="n">
+      <c r="T9">
         <v>16169</v>
       </c>
-      <c r="J3" t="n">
+      <c r="U9">
         <v>16704</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+    </row>
+    <row r="10" spans="12:22" x14ac:dyDescent="0.3">
+      <c r="L10">
         <v>1983</v>
       </c>
-      <c r="B4" t="n">
+      <c r="M10">
         <v>3410</v>
       </c>
-      <c r="C4" t="n">
+      <c r="N10">
         <v>8992</v>
       </c>
-      <c r="D4" t="n">
+      <c r="O10">
         <v>13873</v>
       </c>
-      <c r="E4" t="n">
+      <c r="P10">
         <v>16141</v>
       </c>
-      <c r="F4" t="n">
+      <c r="Q10">
         <v>18735</v>
       </c>
-      <c r="G4" t="n">
+      <c r="R10">
         <v>22214</v>
       </c>
-      <c r="H4" t="n">
+      <c r="S10">
         <v>22863</v>
       </c>
-      <c r="I4" t="n">
+      <c r="T10">
         <v>23466</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+    </row>
+    <row r="11" spans="12:22" x14ac:dyDescent="0.3">
+      <c r="L11">
         <v>1984</v>
       </c>
-      <c r="B5" t="n">
+      <c r="M11">
         <v>5655</v>
       </c>
-      <c r="C5" t="n">
+      <c r="N11">
         <v>11555</v>
       </c>
-      <c r="D5" t="n">
+      <c r="O11">
         <v>15766</v>
       </c>
-      <c r="E5" t="n">
+      <c r="P11">
         <v>21266</v>
       </c>
-      <c r="F5" t="n">
+      <c r="Q11">
         <v>23425</v>
       </c>
-      <c r="G5" t="n">
+      <c r="R11">
         <v>26083</v>
       </c>
-      <c r="H5" t="n">
+      <c r="S11">
         <v>27067</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    </row>
+    <row r="12" spans="12:22" x14ac:dyDescent="0.3">
+      <c r="L12">
         <v>1985</v>
       </c>
-      <c r="B6" t="n">
+      <c r="M12">
         <v>1092</v>
       </c>
-      <c r="C6" t="n">
+      <c r="N12">
         <v>9565</v>
       </c>
-      <c r="D6" t="n">
+      <c r="O12">
         <v>15836</v>
       </c>
-      <c r="E6" t="n">
+      <c r="P12">
         <v>22169</v>
       </c>
-      <c r="F6" t="n">
+      <c r="Q12">
         <v>25955</v>
       </c>
-      <c r="G6" t="n">
+      <c r="R12">
         <v>26180</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+    </row>
+    <row r="13" spans="12:22" x14ac:dyDescent="0.3">
+      <c r="L13">
         <v>1986</v>
       </c>
-      <c r="B7" t="n">
+      <c r="M13">
         <v>1513</v>
       </c>
-      <c r="C7" t="n">
+      <c r="N13">
         <v>6445</v>
       </c>
-      <c r="D7" t="n">
+      <c r="O13">
         <v>11702</v>
       </c>
-      <c r="E7" t="n">
+      <c r="P13">
         <v>12935</v>
       </c>
-      <c r="F7" t="n">
+      <c r="Q13">
         <v>15852</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+    </row>
+    <row r="14" spans="12:22" x14ac:dyDescent="0.3">
+      <c r="L14">
         <v>1987</v>
       </c>
-      <c r="B8" t="n">
+      <c r="M14">
         <v>557</v>
       </c>
-      <c r="C8" t="n">
+      <c r="N14">
         <v>4020</v>
       </c>
-      <c r="D8" t="n">
+      <c r="O14">
         <v>10946</v>
       </c>
-      <c r="E8" t="n">
+      <c r="P14">
         <v>12314</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+    </row>
+    <row r="15" spans="12:22" x14ac:dyDescent="0.3">
+      <c r="L15">
         <v>1988</v>
       </c>
-      <c r="B9" t="n">
+      <c r="M15">
         <v>1351</v>
       </c>
-      <c r="C9" t="n">
+      <c r="N15">
         <v>6947</v>
       </c>
-      <c r="D9" t="n">
+      <c r="O15">
         <v>13112</v>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+    </row>
+    <row r="16" spans="12:22" x14ac:dyDescent="0.3">
+      <c r="L16">
         <v>1989</v>
       </c>
-      <c r="B10" t="n">
+      <c r="M16">
         <v>3133</v>
       </c>
-      <c r="C10" t="n">
+      <c r="N16">
         <v>5395</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+    </row>
+    <row r="17" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L17">
         <v>1990</v>
       </c>
-      <c r="B11" t="n">
+      <c r="M17">
         <v>2063</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D15C73-29A3-40FA-A174-A743494D4C42}">
+  <dimension ref="E18:O28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>8</v>
+      </c>
+      <c r="O18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>5012</v>
+      </c>
+      <c r="G19">
+        <v>8269</v>
+      </c>
+      <c r="H19">
+        <v>10907</v>
+      </c>
+      <c r="I19">
+        <v>11805</v>
+      </c>
+      <c r="J19">
+        <v>13539</v>
+      </c>
+      <c r="K19">
+        <v>16181</v>
+      </c>
+      <c r="L19">
+        <v>18009</v>
+      </c>
+      <c r="M19">
+        <v>15496</v>
+      </c>
+      <c r="N19">
+        <v>15496</v>
+      </c>
+      <c r="O19">
+        <v>15496</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>106</v>
+      </c>
+      <c r="G20">
+        <v>4285</v>
+      </c>
+      <c r="H20">
+        <v>5396</v>
+      </c>
+      <c r="I20">
+        <v>10666</v>
+      </c>
+      <c r="J20">
+        <v>13782</v>
+      </c>
+      <c r="K20">
+        <v>15599</v>
+      </c>
+      <c r="L20">
+        <v>15496</v>
+      </c>
+      <c r="M20">
+        <v>15496</v>
+      </c>
+      <c r="N20">
+        <v>15496</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>2000</v>
+      </c>
+      <c r="G21">
+        <v>8992</v>
+      </c>
+      <c r="H21">
+        <v>13873</v>
+      </c>
+      <c r="I21">
+        <v>16141</v>
+      </c>
+      <c r="J21">
+        <v>18735</v>
+      </c>
+      <c r="K21">
+        <v>22214</v>
+      </c>
+      <c r="L21">
+        <v>22863</v>
+      </c>
+      <c r="M21">
+        <v>15496</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>5655</v>
+      </c>
+      <c r="G22">
+        <v>11555</v>
+      </c>
+      <c r="H22">
+        <v>15766</v>
+      </c>
+      <c r="I22">
+        <v>21266</v>
+      </c>
+      <c r="J22">
+        <v>23425</v>
+      </c>
+      <c r="K22">
+        <v>26083</v>
+      </c>
+      <c r="L22">
+        <v>27067</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>1092</v>
+      </c>
+      <c r="G23">
+        <v>9565</v>
+      </c>
+      <c r="H23">
+        <v>15836</v>
+      </c>
+      <c r="I23">
+        <v>22169</v>
+      </c>
+      <c r="J23">
+        <v>25955</v>
+      </c>
+      <c r="K23">
+        <v>26180</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>1513</v>
+      </c>
+      <c r="G24">
+        <v>6445</v>
+      </c>
+      <c r="H24">
+        <v>11702</v>
+      </c>
+      <c r="I24">
+        <v>12935</v>
+      </c>
+      <c r="J24">
+        <v>15852</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>557</v>
+      </c>
+      <c r="G25">
+        <v>4020</v>
+      </c>
+      <c r="H25">
+        <v>10946</v>
+      </c>
+      <c r="I25">
+        <v>12314</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>1351</v>
+      </c>
+      <c r="G26">
+        <v>6947</v>
+      </c>
+      <c r="H26">
+        <v>13112</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>3133</v>
+      </c>
+      <c r="G27">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>2063</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>